--- a/Wlan Log.xlsx
+++ b/Wlan Log.xlsx
@@ -47,7 +47,7 @@
       <name val="Times New Roman"/>
       <b val="1"/>
       <strike val="0"/>
-      <color rgb="00FFFF00"/>
+      <color rgb="00000000"/>
       <sz val="13"/>
     </font>
   </fonts>
@@ -73,16 +73,16 @@
       <diagonal/>
     </border>
     <border>
-      <left>
+      <left style="medium">
         <color rgb="00000000"/>
       </left>
-      <right>
+      <right style="medium">
         <color rgb="00000000"/>
       </right>
-      <top>
+      <top style="medium">
         <color rgb="00000000"/>
       </top>
-      <bottom>
+      <bottom style="medium">
         <color rgb="00000000"/>
       </bottom>
       <diagonal/>

--- a/Wlan Log.xlsx
+++ b/Wlan Log.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>commitId</t>
   </si>
@@ -28,6 +28,57 @@
   </si>
   <si>
     <t>contents</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>52949bd</t>
+  </si>
+  <si>
+    <t>lioujinfu</t>
+  </si>
+  <si>
+    <t>2018-09-19 23:18:14 +0800</t>
+  </si>
+  <si>
+    <t>将输出的excel 区分状态和修改路径</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>GITOperation.py</t>
+  </si>
+  <si>
+    <t>3cd631a</t>
+  </si>
+  <si>
+    <t>2018-09-18 01:38:24 +0800</t>
+  </si>
+  <si>
+    <t>完善转换为config格式，输出成为正规excel，下一步计划是将diffs剥离出来</t>
+  </si>
+  <si>
+    <t>7812183</t>
+  </si>
+  <si>
+    <t>2018-09-17 01:17:30 +0800</t>
+  </si>
+  <si>
+    <t>添加了将log信息输出到config格式化文件的功能</t>
+  </si>
+  <si>
+    <t>015ddfb</t>
+  </si>
+  <si>
+    <t>2018-09-16 22:12:35 +0800</t>
+  </si>
+  <si>
+    <t>优化结构</t>
   </si>
 </sst>
 </file>
@@ -393,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -401,7 +452,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,6 +464,92 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
